--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.21529999999999</v>
+        <v>-12.2602</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.658200000000001</v>
+        <v>5.3137</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>6.3825</v>
+        <v>6.635</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.0035</v>
+        <v>-14.02860000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,10 +600,10 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>6.538100000000003</v>
+        <v>6.177</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.29799999999999</v>
+        <v>-12.2286</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.6361</v>
+        <v>-13.72289999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.10699999999999</v>
+        <v>-14.35069999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.646899999999993</v>
+        <v>6.685099999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.111899999999996</v>
+        <v>6.076299999999996</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.63420000000001</v>
+        <v>-12.55720000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.4132</v>
+        <v>-13.4293</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.6642</v>
+        <v>-13.5971</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.77520000000001</v>
+        <v>-13.48350000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.603000000000003</v>
+        <v>8.615399999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.69229999999999</v>
+        <v>-12.9188</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.53120000000001</v>
+        <v>-12.48790000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.1666</v>
+        <v>-12.2722</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9745</v>
+        <v>-11.7337</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.464099999999998</v>
+        <v>5.456399999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.555</v>
+        <v>-12.5964</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.676299999999996</v>
+        <v>4.668699999999994</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.35310000000001</v>
+        <v>-11.21290000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.200900000000004</v>
+        <v>9.277100000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.230699999999995</v>
+        <v>9.187599999999993</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.139900000000006</v>
+        <v>9.116500000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.293399999999998</v>
+        <v>9.221599999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.589800000000005</v>
+        <v>6.435500000000006</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.6902</v>
+        <v>5.813199999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,10 +1608,10 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>4.717400000000001</v>
+        <v>6.629300000000006</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.944</v>
+        <v>-12.2945</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.0507</v>
+        <v>-13.17310000000001</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.2915</v>
+        <v>-14.31109999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3346</v>
+        <v>-10.23499999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.43850000000001</v>
+        <v>-11.97040000000001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.09780000000001</v>
+        <v>-13.06720000000001</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.3155</v>
+        <v>-12.3523</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.971400000000002</v>
+        <v>5.3203</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.4305</v>
+        <v>-13.7341</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1860,10 +1860,10 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>7.618599999999999</v>
+        <v>7.158399999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.02310000000001</v>
+        <v>-12.19350000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
